--- a/ticket-to-close.xlsx
+++ b/ticket-to-close.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="232">
   <si>
     <t>id</t>
   </si>
@@ -31,322 +31,616 @@
     <t>check</t>
   </si>
   <si>
-    <t>01/12/2024, 10:22:01</t>
-  </si>
-  <si>
-    <t>73301009</t>
+    <t>01/15/2024, 14:05:10</t>
+  </si>
+  <si>
+    <t>73262050</t>
+  </si>
+  <si>
+    <t>Pas d'accès</t>
+  </si>
+  <si>
+    <t>01/15/2024, 14:26:19</t>
+  </si>
+  <si>
+    <t>01/15/2024, 13:41:28</t>
+  </si>
+  <si>
+    <t>75834342</t>
   </si>
   <si>
     <t>Pas de synchro</t>
   </si>
   <si>
-    <t>01/12/2024, 11:04:25</t>
-  </si>
-  <si>
-    <t>01/11/2024, 16:04:49</t>
-  </si>
-  <si>
-    <t>70662227</t>
+    <t>01/15/2024, 14:27:26</t>
+  </si>
+  <si>
+    <t>01/15/2024, 13:20:50</t>
+  </si>
+  <si>
+    <t>72400740</t>
+  </si>
+  <si>
+    <t>01/15/2024, 14:20:00</t>
+  </si>
+  <si>
+    <t>01/15/2024, 13:14:31</t>
+  </si>
+  <si>
+    <t>74607893</t>
+  </si>
+  <si>
+    <t>01/15/2024, 14:20:40</t>
+  </si>
+  <si>
+    <t>01/15/2024, 12:26:02</t>
+  </si>
+  <si>
+    <t>73458445</t>
+  </si>
+  <si>
+    <t>Pas d'accès MES</t>
+  </si>
+  <si>
+    <t>01/15/2024, 14:03:25</t>
+  </si>
+  <si>
+    <t>01/15/2024, 11:48:41</t>
+  </si>
+  <si>
+    <t>70863475</t>
+  </si>
+  <si>
+    <t>01/15/2024, 13:23:01</t>
+  </si>
+  <si>
+    <t>01/14/2024, 21:56:43</t>
+  </si>
+  <si>
+    <t>79455923</t>
+  </si>
+  <si>
+    <t>01/15/2024, 08:18:09</t>
+  </si>
+  <si>
+    <t>01/14/2024, 17:32:43</t>
+  </si>
+  <si>
+    <t>79402435</t>
+  </si>
+  <si>
+    <t>01/15/2024, 13:53:58</t>
+  </si>
+  <si>
+    <t>01/14/2024, 15:44:24</t>
+  </si>
+  <si>
+    <t>71382918</t>
+  </si>
+  <si>
+    <t>01/14/2024, 16:00:07</t>
+  </si>
+  <si>
+    <t>01/14/2024, 12:52:56</t>
+  </si>
+  <si>
+    <t>75332704</t>
+  </si>
+  <si>
+    <t>01/14/2024, 12:54:39</t>
+  </si>
+  <si>
+    <t>01/13/2024, 15:19:10</t>
+  </si>
+  <si>
+    <t>78655257</t>
+  </si>
+  <si>
+    <t>01/15/2024, 12:08:59</t>
+  </si>
+  <si>
+    <t>01/13/2024, 14:38:41</t>
+  </si>
+  <si>
+    <t>78456499</t>
+  </si>
+  <si>
+    <t>01/15/2024, 11:48:27</t>
+  </si>
+  <si>
+    <t>01/13/2024, 14:21:04</t>
+  </si>
+  <si>
+    <t>71396122</t>
+  </si>
+  <si>
+    <t>01/15/2024, 09:58:53</t>
+  </si>
+  <si>
+    <t>01/13/2024, 13:35:23</t>
+  </si>
+  <si>
+    <t>73640145</t>
+  </si>
+  <si>
+    <t>01/14/2024, 06:58:22</t>
+  </si>
+  <si>
+    <t>01/13/2024, 12:58:47</t>
+  </si>
+  <si>
+    <t>72484817</t>
+  </si>
+  <si>
+    <t>01/15/2024, 13:17:54</t>
+  </si>
+  <si>
+    <t>01/13/2024, 12:35:03</t>
+  </si>
+  <si>
+    <t>76485004</t>
+  </si>
+  <si>
+    <t>Pas de synchro suite transfert</t>
+  </si>
+  <si>
+    <t>01/14/2024, 09:36:24</t>
+  </si>
+  <si>
+    <t>01/13/2024, 11:50:18</t>
+  </si>
+  <si>
+    <t>72680022</t>
+  </si>
+  <si>
+    <t>01/13/2024, 14:10:59</t>
+  </si>
+  <si>
+    <t>01/13/2024, 10:18:17</t>
+  </si>
+  <si>
+    <t>71228898</t>
+  </si>
+  <si>
+    <t>01/15/2024, 15:05:41</t>
+  </si>
+  <si>
+    <t>01/13/2024, 08:43:33</t>
+  </si>
+  <si>
+    <t>75420348</t>
+  </si>
+  <si>
+    <t>01/13/2024, 09:01:07</t>
+  </si>
+  <si>
+    <t>01/13/2024, 08:23:09</t>
+  </si>
+  <si>
+    <t>76223013</t>
   </si>
   <si>
     <t>Pas d'accès suite migration VDSL</t>
   </si>
   <si>
-    <t>01/12/2024, 10:52:39</t>
-  </si>
-  <si>
-    <t>01/11/2024, 14:38:14</t>
-  </si>
-  <si>
-    <t>71986435</t>
-  </si>
-  <si>
-    <t>01/12/2024, 13:55:10</t>
-  </si>
-  <si>
-    <t>01/11/2024, 11:04:57</t>
-  </si>
-  <si>
-    <t>71926438</t>
-  </si>
-  <si>
-    <t>01/12/2024, 07:51:44</t>
-  </si>
-  <si>
-    <t>01/10/2024, 19:45:27</t>
-  </si>
-  <si>
-    <t>74808733</t>
+    <t>01/14/2024, 03:33:15</t>
+  </si>
+  <si>
+    <t>01/12/2024, 16:44:04</t>
+  </si>
+  <si>
+    <t>70933362</t>
+  </si>
+  <si>
+    <t>01/14/2024, 20:46:47</t>
+  </si>
+  <si>
+    <t>01/12/2024, 16:36:57</t>
+  </si>
+  <si>
+    <t>75491668</t>
+  </si>
+  <si>
+    <t>01/15/2024, 10:12:59</t>
+  </si>
+  <si>
+    <t>01/12/2024, 16:22:24</t>
+  </si>
+  <si>
+    <t>72207794</t>
+  </si>
+  <si>
+    <t>01/13/2024, 15:45:16</t>
+  </si>
+  <si>
+    <t>01/12/2024, 14:45:28</t>
+  </si>
+  <si>
+    <t>71920043</t>
+  </si>
+  <si>
+    <t>01/12/2024, 15:24:42</t>
+  </si>
+  <si>
+    <t>01/12/2024, 14:32:26</t>
+  </si>
+  <si>
+    <t>70566557</t>
+  </si>
+  <si>
+    <t>01/15/2024, 07:49:13</t>
+  </si>
+  <si>
+    <t>01/12/2024, 13:57:46</t>
+  </si>
+  <si>
+    <t>73555086</t>
   </si>
   <si>
     <t>Pas de synchro MES</t>
   </si>
   <si>
-    <t>01/11/2024, 14:37:37</t>
-  </si>
-  <si>
-    <t>01/10/2024, 18:14:45</t>
-  </si>
-  <si>
-    <t>72498117</t>
-  </si>
-  <si>
-    <t>01/11/2024, 07:47:21</t>
-  </si>
-  <si>
-    <t>01/10/2024, 18:10:27</t>
-  </si>
-  <si>
-    <t>72393786</t>
-  </si>
-  <si>
-    <t>01/12/2024, 03:46:53</t>
-  </si>
-  <si>
-    <t>01/10/2024, 17:08:50</t>
-  </si>
-  <si>
-    <t>71584511</t>
-  </si>
-  <si>
-    <t>01/12/2024, 11:43:20</t>
-  </si>
-  <si>
-    <t>01/10/2024, 13:53:38</t>
-  </si>
-  <si>
-    <t>74633426</t>
-  </si>
-  <si>
-    <t>01/12/2024, 02:22:10</t>
-  </si>
-  <si>
-    <t>01/10/2024, 13:00:40</t>
-  </si>
-  <si>
-    <t>73527936</t>
-  </si>
-  <si>
-    <t>01/12/2024, 10:54:27</t>
-  </si>
-  <si>
-    <t>01/10/2024, 12:25:05</t>
-  </si>
-  <si>
-    <t>77465754</t>
-  </si>
-  <si>
-    <t>01/11/2024, 15:15:25</t>
-  </si>
-  <si>
-    <t>01/10/2024, 11:49:21</t>
-  </si>
-  <si>
-    <t>73435470</t>
-  </si>
-  <si>
-    <t>01/11/2024, 19:32:14</t>
-  </si>
-  <si>
-    <t>01/09/2024, 18:50:45</t>
-  </si>
-  <si>
-    <t>74683667</t>
-  </si>
-  <si>
-    <t>01/12/2024, 10:54:22</t>
-  </si>
-  <si>
-    <t>01/09/2024, 18:05:17</t>
-  </si>
-  <si>
-    <t>71760228</t>
-  </si>
-  <si>
-    <t>01/12/2024, 08:14:09</t>
-  </si>
-  <si>
-    <t>01/09/2024, 16:43:09</t>
-  </si>
-  <si>
-    <t>77268020</t>
-  </si>
-  <si>
-    <t>01/11/2024, 12:03:02</t>
-  </si>
-  <si>
-    <t>01/09/2024, 16:34:47</t>
-  </si>
-  <si>
-    <t>73634264</t>
-  </si>
-  <si>
-    <t>01/10/2024, 12:02:16</t>
-  </si>
-  <si>
-    <t>01/09/2024, 15:46:17</t>
-  </si>
-  <si>
-    <t>72486505</t>
-  </si>
-  <si>
-    <t>01/11/2024, 06:33:11</t>
-  </si>
-  <si>
-    <t>01/08/2024, 13:56:52</t>
-  </si>
-  <si>
-    <t>72269530</t>
-  </si>
-  <si>
-    <t>01/12/2024, 10:46:37</t>
-  </si>
-  <si>
-    <t>01/08/2024, 12:34:12</t>
-  </si>
-  <si>
-    <t>75679913</t>
-  </si>
-  <si>
-    <t>01/09/2024, 19:21:58</t>
-  </si>
-  <si>
-    <t>01/07/2024, 11:06:32</t>
-  </si>
-  <si>
-    <t>76673062</t>
-  </si>
-  <si>
-    <t>01/10/2024, 13:25:02</t>
-  </si>
-  <si>
-    <t>01/06/2024, 19:37:39</t>
-  </si>
-  <si>
-    <t>77440419</t>
-  </si>
-  <si>
-    <t>01/10/2024, 12:12:01</t>
-  </si>
-  <si>
-    <t>01/06/2024, 15:24:45</t>
-  </si>
-  <si>
-    <t>71694873</t>
-  </si>
-  <si>
-    <t>01/10/2024, 11:56:00</t>
-  </si>
-  <si>
-    <t>01/06/2024, 15:19:55</t>
-  </si>
-  <si>
-    <t>71542034</t>
-  </si>
-  <si>
-    <t>01/11/2024, 14:06:42</t>
-  </si>
-  <si>
-    <t>01/05/2024, 10:14:19</t>
-  </si>
-  <si>
-    <t>70618705</t>
-  </si>
-  <si>
-    <t>01/11/2024, 10:14:12</t>
-  </si>
-  <si>
-    <t>01/04/2024, 19:24:30</t>
-  </si>
-  <si>
-    <t>76640051</t>
-  </si>
-  <si>
-    <t>01/10/2024, 18:12:22</t>
-  </si>
-  <si>
-    <t>01/04/2024, 11:37:49</t>
-  </si>
-  <si>
-    <t>74803234</t>
-  </si>
-  <si>
-    <t>01/11/2024, 18:24:23</t>
-  </si>
-  <si>
-    <t>01/04/2024, 11:13:11</t>
-  </si>
-  <si>
-    <t>73313501</t>
-  </si>
-  <si>
-    <t>01/12/2024, 13:28:05</t>
-  </si>
-  <si>
-    <t>01/03/2024, 19:19:46</t>
-  </si>
-  <si>
-    <t>74246742</t>
-  </si>
-  <si>
-    <t>01/11/2024, 11:20:26</t>
-  </si>
-  <si>
-    <t>01/03/2024, 14:33:24</t>
-  </si>
-  <si>
-    <t>77261472</t>
-  </si>
-  <si>
-    <t>Pas d'accès MES</t>
-  </si>
-  <si>
-    <t>01/11/2024, 20:03:01</t>
-  </si>
-  <si>
-    <t>01/03/2024, 14:17:10</t>
-  </si>
-  <si>
-    <t>72400116</t>
-  </si>
-  <si>
-    <t>01/06/2024, 08:48:37</t>
-  </si>
-  <si>
-    <t>01/03/2024, 12:16:22</t>
-  </si>
-  <si>
-    <t>71634487</t>
-  </si>
-  <si>
-    <t>01/09/2024, 14:29:56</t>
-  </si>
-  <si>
-    <t>01/02/2024, 21:52:24</t>
-  </si>
-  <si>
-    <t>77440648</t>
-  </si>
-  <si>
-    <t>01/11/2024, 22:22:27</t>
-  </si>
-  <si>
-    <t>01/02/2024, 14:52:05</t>
-  </si>
-  <si>
-    <t>71304572</t>
-  </si>
-  <si>
-    <t>01/09/2024, 17:23:19</t>
-  </si>
-  <si>
-    <t>01/02/2024, 09:56:46</t>
-  </si>
-  <si>
-    <t>73200432</t>
-  </si>
-  <si>
-    <t>01/11/2024, 04:41:07</t>
+    <t>01/15/2024, 13:08:26</t>
+  </si>
+  <si>
+    <t>01/12/2024, 12:26:25</t>
+  </si>
+  <si>
+    <t>75679831</t>
+  </si>
+  <si>
+    <t>01/12/2024, 15:56:44</t>
+  </si>
+  <si>
+    <t>01/12/2024, 12:07:29</t>
+  </si>
+  <si>
+    <t>78459308</t>
+  </si>
+  <si>
+    <t>01/12/2024, 15:41:05</t>
+  </si>
+  <si>
+    <t>01/12/2024, 09:03:49</t>
+  </si>
+  <si>
+    <t>71363405</t>
+  </si>
+  <si>
+    <t>01/14/2024, 10:16:33</t>
+  </si>
+  <si>
+    <t>01/11/2024, 16:01:57</t>
+  </si>
+  <si>
+    <t>71614095</t>
+  </si>
+  <si>
+    <t>01/12/2024, 10:22:55</t>
+  </si>
+  <si>
+    <t>01/11/2024, 16:01:17</t>
+  </si>
+  <si>
+    <t>72482138</t>
+  </si>
+  <si>
+    <t>01/12/2024, 10:29:45</t>
+  </si>
+  <si>
+    <t>01/11/2024, 14:19:12</t>
+  </si>
+  <si>
+    <t>71220095</t>
+  </si>
+  <si>
+    <t>01/11/2024, 14:20:12</t>
+  </si>
+  <si>
+    <t>01/11/2024, 13:23:14</t>
+  </si>
+  <si>
+    <t>73510314</t>
+  </si>
+  <si>
+    <t>01/14/2024, 23:24:30</t>
+  </si>
+  <si>
+    <t>01/11/2024, 12:59:33</t>
+  </si>
+  <si>
+    <t>75743547</t>
+  </si>
+  <si>
+    <t>01/15/2024, 10:40:18</t>
+  </si>
+  <si>
+    <t>01/11/2024, 10:31:40</t>
+  </si>
+  <si>
+    <t>78670430</t>
+  </si>
+  <si>
+    <t>Pas d'accès suite transfert</t>
+  </si>
+  <si>
+    <t>01/14/2024, 19:07:14</t>
+  </si>
+  <si>
+    <t>01/11/2024, 09:48:43</t>
+  </si>
+  <si>
+    <t>73497387</t>
+  </si>
+  <si>
+    <t>01/13/2024, 10:43:02</t>
+  </si>
+  <si>
+    <t>01/10/2024, 16:44:14</t>
+  </si>
+  <si>
+    <t>73563356</t>
+  </si>
+  <si>
+    <t>01/12/2024, 12:56:49</t>
+  </si>
+  <si>
+    <t>01/10/2024, 15:45:56</t>
+  </si>
+  <si>
+    <t>73563387</t>
+  </si>
+  <si>
+    <t>01/12/2024, 12:33:23</t>
+  </si>
+  <si>
+    <t>01/10/2024, 13:55:40</t>
+  </si>
+  <si>
+    <t>74899071</t>
+  </si>
+  <si>
+    <t>01/12/2024, 15:33:26</t>
+  </si>
+  <si>
+    <t>01/10/2024, 11:28:43</t>
+  </si>
+  <si>
+    <t>75435292</t>
+  </si>
+  <si>
+    <t>01/13/2024, 08:52:17</t>
+  </si>
+  <si>
+    <t>01/09/2024, 19:48:35</t>
+  </si>
+  <si>
+    <t>79393672</t>
+  </si>
+  <si>
+    <t>01/13/2024, 16:40:50</t>
+  </si>
+  <si>
+    <t>01/09/2024, 18:47:05</t>
+  </si>
+  <si>
+    <t>79411232</t>
+  </si>
+  <si>
+    <t>01/12/2024, 09:49:14</t>
+  </si>
+  <si>
+    <t>01/09/2024, 14:33:00</t>
+  </si>
+  <si>
+    <t>79350548</t>
+  </si>
+  <si>
+    <t>Pas de synchro MES_cable sous terrain</t>
+  </si>
+  <si>
+    <t>01/13/2024, 12:15:38</t>
+  </si>
+  <si>
+    <t>01/09/2024, 13:47:30</t>
+  </si>
+  <si>
+    <t>70636743</t>
+  </si>
+  <si>
+    <t>01/11/2024, 13:30:22</t>
+  </si>
+  <si>
+    <t>01/09/2024, 08:12:20</t>
+  </si>
+  <si>
+    <t>76660969</t>
+  </si>
+  <si>
+    <t>01/15/2024, 09:05:46</t>
+  </si>
+  <si>
+    <t>01/08/2024, 18:09:14</t>
+  </si>
+  <si>
+    <t>75842961</t>
+  </si>
+  <si>
+    <t>01/10/2024, 17:04:22</t>
+  </si>
+  <si>
+    <t>01/08/2024, 17:56:39</t>
+  </si>
+  <si>
+    <t>72338212</t>
+  </si>
+  <si>
+    <t>01/10/2024, 12:12:04</t>
+  </si>
+  <si>
+    <t>01/08/2024, 13:16:07</t>
+  </si>
+  <si>
+    <t>79307488</t>
+  </si>
+  <si>
+    <t>01/14/2024, 06:07:15</t>
+  </si>
+  <si>
+    <t>01/08/2024, 13:02:59</t>
+  </si>
+  <si>
+    <t>73497954</t>
+  </si>
+  <si>
+    <t>01/10/2024, 10:41:56</t>
+  </si>
+  <si>
+    <t>01/08/2024, 12:34:19</t>
+  </si>
+  <si>
+    <t>78471168</t>
+  </si>
+  <si>
+    <t>01/13/2024, 23:01:00</t>
+  </si>
+  <si>
+    <t>01/08/2024, 10:56:09</t>
+  </si>
+  <si>
+    <t>73439267</t>
+  </si>
+  <si>
+    <t>01/10/2024, 15:47:52</t>
+  </si>
+  <si>
+    <t>01/08/2024, 10:37:51</t>
+  </si>
+  <si>
+    <t>73470971</t>
+  </si>
+  <si>
+    <t>01/14/2024, 16:15:58</t>
+  </si>
+  <si>
+    <t>01/08/2024, 09:20:15</t>
+  </si>
+  <si>
+    <t>75679602</t>
+  </si>
+  <si>
+    <t>01/15/2024, 10:32:18</t>
+  </si>
+  <si>
+    <t>01/07/2024, 20:04:12</t>
+  </si>
+  <si>
+    <t>73496145</t>
+  </si>
+  <si>
+    <t>01/12/2024, 10:53:33</t>
+  </si>
+  <si>
+    <t>01/07/2024, 13:10:52</t>
+  </si>
+  <si>
+    <t>78630005</t>
+  </si>
+  <si>
+    <t>01/12/2024, 18:20:21</t>
+  </si>
+  <si>
+    <t>01/07/2024, 12:54:26</t>
+  </si>
+  <si>
+    <t>72295307</t>
+  </si>
+  <si>
+    <t>01/13/2024, 07:59:05</t>
+  </si>
+  <si>
+    <t>01/07/2024, 10:20:36</t>
+  </si>
+  <si>
+    <t>74882318</t>
+  </si>
+  <si>
+    <t>01/13/2024, 11:09:57</t>
+  </si>
+  <si>
+    <t>01/06/2024, 15:40:38</t>
+  </si>
+  <si>
+    <t>72243132</t>
+  </si>
+  <si>
+    <t>01/12/2024, 11:08:12</t>
+  </si>
+  <si>
+    <t>01/06/2024, 09:22:46</t>
+  </si>
+  <si>
+    <t>71271389</t>
+  </si>
+  <si>
+    <t>Port inversé MES</t>
+  </si>
+  <si>
+    <t>01/12/2024, 17:25:17</t>
+  </si>
+  <si>
+    <t>01/05/2024, 20:58:19</t>
+  </si>
+  <si>
+    <t>73543007</t>
+  </si>
+  <si>
+    <t>01/11/2024, 16:03:39</t>
+  </si>
+  <si>
+    <t>01/05/2024, 14:22:38</t>
+  </si>
+  <si>
+    <t>75370274</t>
+  </si>
+  <si>
+    <t>01/13/2024, 10:32:49</t>
+  </si>
+  <si>
+    <t>01/04/2024, 17:44:12</t>
+  </si>
+  <si>
+    <t>70830019</t>
+  </si>
+  <si>
+    <t>01/14/2024, 23:23:12</t>
+  </si>
+  <si>
+    <t>01/03/2024, 20:00:49</t>
+  </si>
+  <si>
+    <t>71406257</t>
+  </si>
+  <si>
+    <t>01/10/2024, 16:11:16</t>
+  </si>
+  <si>
+    <t>01/02/2024, 15:04:01</t>
+  </si>
+  <si>
+    <t>71556673</t>
+  </si>
+  <si>
+    <t>01/13/2024, 23:12:31</t>
+  </si>
+  <si>
+    <t>01/02/2024, 14:36:32</t>
+  </si>
+  <si>
+    <t>70256640</t>
+  </si>
+  <si>
+    <t>01/12/2024, 15:33:56</t>
   </si>
   <si>
     <t>12/31/2023, 14:17:56</t>
@@ -355,124 +649,64 @@
     <t>73290061</t>
   </si>
   <si>
-    <t>Pas de synchro suite transfert</t>
-  </si>
-  <si>
     <t>01/02/2024, 22:50:35</t>
   </si>
   <si>
-    <t>12/30/2023, 14:25:47</t>
-  </si>
-  <si>
-    <t>79300830</t>
-  </si>
-  <si>
-    <t>01/09/2024, 14:47:12</t>
-  </si>
-  <si>
-    <t>12/25/2023, 14:17:44</t>
-  </si>
-  <si>
-    <t>73639326</t>
-  </si>
-  <si>
-    <t>01/10/2024, 14:01:30</t>
-  </si>
-  <si>
-    <t>12/25/2023, 09:57:10</t>
-  </si>
-  <si>
-    <t>71665726</t>
-  </si>
-  <si>
-    <t>12/29/2023, 07:28:11</t>
-  </si>
-  <si>
-    <t>12/23/2023, 13:35:22</t>
-  </si>
-  <si>
-    <t>71985733</t>
-  </si>
-  <si>
-    <t>01/12/2024, 12:39:54</t>
-  </si>
-  <si>
-    <t>12/22/2023, 16:17:28</t>
-  </si>
-  <si>
-    <t>75894028</t>
-  </si>
-  <si>
-    <t>01/12/2024, 13:36:50</t>
-  </si>
-  <si>
-    <t>12/20/2023, 17:37:10</t>
-  </si>
-  <si>
-    <t>73233319</t>
-  </si>
-  <si>
-    <t>Pas d'accès_MAC 0005</t>
-  </si>
-  <si>
-    <t>12/21/2023, 12:48:20</t>
-  </si>
-  <si>
-    <t>12/15/2023, 13:41:13</t>
-  </si>
-  <si>
-    <t>75331117</t>
-  </si>
-  <si>
-    <t>01/10/2024, 18:28:48</t>
-  </si>
-  <si>
-    <t>12/15/2023, 09:46:19</t>
-  </si>
-  <si>
-    <t>70627987</t>
-  </si>
-  <si>
-    <t>Pas de synchro MES_Vol de cable</t>
-  </si>
-  <si>
-    <t>01/09/2024, 22:12:57</t>
-  </si>
-  <si>
-    <t>12/11/2023, 16:47:32</t>
-  </si>
-  <si>
-    <t>71526527</t>
-  </si>
-  <si>
-    <t>12/20/2023, 11:27:08</t>
-  </si>
-  <si>
-    <t>12/10/2023, 18:35:33</t>
-  </si>
-  <si>
-    <t>72296661</t>
-  </si>
-  <si>
-    <t>01/12/2024, 11:10:50</t>
-  </si>
-  <si>
-    <t>11/30/2023, 20:01:49</t>
-  </si>
-  <si>
-    <t>73479037</t>
-  </si>
-  <si>
-    <t>01/11/2024, 15:51:28</t>
-  </si>
-  <si>
-    <t>11/23/2023, 15:21:49</t>
-  </si>
-  <si>
-    <t>71807958</t>
-  </si>
-  <si>
-    <t>01/12/2024, 04:54:26</t>
+    <t>12/29/2023, 17:37:08</t>
+  </si>
+  <si>
+    <t>72304207</t>
+  </si>
+  <si>
+    <t>01/12/2024, 11:28:13</t>
+  </si>
+  <si>
+    <t>12/29/2023, 14:36:49</t>
+  </si>
+  <si>
+    <t>72481060</t>
+  </si>
+  <si>
+    <t>01/13/2024, 13:20:05</t>
+  </si>
+  <si>
+    <t>12/26/2023, 12:55:24</t>
+  </si>
+  <si>
+    <t>72483026</t>
+  </si>
+  <si>
+    <t>01/13/2024, 19:10:17</t>
+  </si>
+  <si>
+    <t>12/22/2023, 16:37:02</t>
+  </si>
+  <si>
+    <t>75679662</t>
+  </si>
+  <si>
+    <t>01/14/2024, 14:35:44</t>
+  </si>
+  <si>
+    <t>12/13/2023, 12:57:15</t>
+  </si>
+  <si>
+    <t>72483567</t>
+  </si>
+  <si>
+    <t>01/14/2024, 20:31:08</t>
+  </si>
+  <si>
+    <t>12/01/2023, 18:33:49</t>
+  </si>
+  <si>
+    <t>71986411</t>
+  </si>
+  <si>
+    <t>Port inversé</t>
+  </si>
+  <si>
+    <t>01/10/2024, 12:20:01</t>
   </si>
 </sst>
 </file>
@@ -849,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F73"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="20" customWidth="1"/>
@@ -878,7 +1112,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>172838</v>
+        <v>173260</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -893,12 +1127,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>172756</v>
+        <v>173254</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -913,12 +1147,12 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>172731</v>
+        <v>173242</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -927,18 +1161,18 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>172680</v>
+        <v>173240</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -947,18 +1181,18 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>172647</v>
+        <v>173226</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -973,12 +1207,12 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>172637</v>
+        <v>173214</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -987,18 +1221,18 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>172635</v>
+        <v>173133</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1007,18 +1241,18 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>172622</v>
+        <v>173121</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1033,12 +1267,12 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>172573</v>
+        <v>173117</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -1047,7 +1281,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
@@ -1058,7 +1292,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>172565</v>
+        <v>173105</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1067,7 +1301,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1078,7 +1312,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>172550</v>
+        <v>173052</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1087,7 +1321,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
@@ -1098,7 +1332,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>172536</v>
+        <v>173044</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1107,7 +1341,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -1118,7 +1352,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>172476</v>
+        <v>173042</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -1127,18 +1361,18 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>172466</v>
+        <v>173034</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1147,7 +1381,7 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -1158,7 +1392,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>172447</v>
+        <v>173026</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
@@ -1167,18 +1401,18 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>172444</v>
+        <v>173023</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -1187,50 +1421,50 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>172431</v>
+        <v>173018</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>172221</v>
+        <v>173005</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1238,39 +1472,39 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>172189</v>
+        <v>172991</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>172060</v>
+        <v>172989</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1278,19 +1512,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>172042</v>
+        <v>172950</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1298,39 +1532,39 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>172010</v>
+        <v>172945</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>172009</v>
+        <v>172938</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1338,39 +1572,39 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>171825</v>
+        <v>172905</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>171793</v>
+        <v>172904</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1378,79 +1612,79 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>171652</v>
+        <v>172895</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>171639</v>
+        <v>172869</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>171571</v>
+        <v>172864</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>171515</v>
+        <v>172822</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1458,39 +1692,39 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>171509</v>
+        <v>172755</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>171478</v>
+        <v>172753</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1498,39 +1732,39 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>171431</v>
+        <v>172726</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>171357</v>
+        <v>172716</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1538,39 +1772,39 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>171263</v>
+        <v>172710</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>171176</v>
+        <v>172673</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1578,19 +1812,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>171122</v>
+        <v>172665</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1598,59 +1832,59 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>170366</v>
+        <v>172615</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>170274</v>
+        <v>172598</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>170139</v>
+        <v>172574</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1658,19 +1892,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>170038</v>
+        <v>172528</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1678,19 +1912,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>169592</v>
+        <v>172483</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1698,79 +1932,79 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>168694</v>
+        <v>172475</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>168615</v>
+        <v>172411</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>167998</v>
+        <v>172400</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>167836</v>
+        <v>172322</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1778,19 +2012,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>166596</v>
+        <v>172289</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1798,22 +2032,522 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>165536</v>
+        <v>172286</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>172211</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>172207</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>172190</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>172147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>172136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>172113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>172091</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>172072</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>172069</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>172058</v>
+      </c>
+      <c r="B58" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>172011</v>
+      </c>
+      <c r="B59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>171969</v>
+      </c>
+      <c r="B60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>171956</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
+      <c r="E61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>171883</v>
+      </c>
+      <c r="B62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>171770</v>
+      </c>
+      <c r="B63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>171576</v>
+      </c>
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>171360</v>
+      </c>
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>171350</v>
+      </c>
+      <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>171176</v>
+      </c>
+      <c r="B67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" t="s">
+        <v>212</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>171071</v>
+      </c>
+      <c r="B68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>215</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>171034</v>
+      </c>
+      <c r="B69" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>170541</v>
+      </c>
+      <c r="B70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>170045</v>
+      </c>
+      <c r="B71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>224</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>168297</v>
+      </c>
+      <c r="B72" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>227</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>166752</v>
+      </c>
+      <c r="B73" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
